--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value911.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value911.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.717289212312531</v>
+        <v>1.076394557952881</v>
       </c>
       <c r="B1">
-        <v>1.814087015727112</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.945626523280639</v>
+        <v>2.382917404174805</v>
       </c>
       <c r="D1">
-        <v>2.747945097226314</v>
+        <v>1.346486449241638</v>
       </c>
       <c r="E1">
-        <v>2.855713878157269</v>
+        <v>0.9659369587898254</v>
       </c>
     </row>
   </sheetData>
